--- a/.files/Company Mapping.xlsx
+++ b/.files/Company Mapping.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GM00061060\UiPath\BlacklineItemWorking\.files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02E7581-4FB2-493F-BEDF-60A897F5A434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED932A5-80C5-442F-BA65-85A172E6D2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24DCB324-0A8F-43DA-BEDB-3B635300E7A2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24DCB324-0A8F-43DA-BEDB-3B635300E7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>100 - ICU Medical, Inc.</t>
   </si>
@@ -138,13 +138,124 @@
   </si>
   <si>
     <t>430 - SM Nederland BV</t>
+  </si>
+  <si>
+    <t>420 - SM Sverige AB</t>
+  </si>
+  <si>
+    <t>509 - SM China (Shanghai)</t>
+  </si>
+  <si>
+    <t>509 - ICU Medical Shanghai Co Ltd</t>
+  </si>
+  <si>
+    <t>508 - SM Instrument (Zhejiang) Co Ltd</t>
+  </si>
+  <si>
+    <t>510 - SM India Private Ltd</t>
+  </si>
+  <si>
+    <t>500 - SM Japan</t>
+  </si>
+  <si>
+    <t>501 - ICU Medical (SM) Pty Ltd.</t>
+  </si>
+  <si>
+    <t>721 - SG BIS (US)</t>
+  </si>
+  <si>
+    <t>200 - ICU Medical Healthcare Manufacturing (SHM) SA</t>
+  </si>
+  <si>
+    <t>320 - Medical Chairmans Adjustment</t>
+  </si>
+  <si>
+    <t>325 - Medical Chairman Adjustment USD</t>
+  </si>
+  <si>
+    <t>505 - SM Zheijang</t>
+  </si>
+  <si>
+    <t>602 - ICU Medical Brazil</t>
+  </si>
+  <si>
+    <t>711 - SI Overseas Holdings</t>
+  </si>
+  <si>
+    <t>501 - SM Australasia Pty</t>
+  </si>
+  <si>
+    <t>501 - SM Australasia Pty. Ltd</t>
+  </si>
+  <si>
+    <t>200 - Smiths Healthcare Manufacturing (SHM) SA de CV</t>
+  </si>
+  <si>
+    <t>308 - SM2020</t>
+  </si>
+  <si>
+    <t>150 - SM US Inc</t>
+  </si>
+  <si>
+    <t>306 - SM UK</t>
+  </si>
+  <si>
+    <t>503 - SM South Africa Pty Ltd</t>
+  </si>
+  <si>
+    <t>AE00 - Middle East FZE</t>
+  </si>
+  <si>
+    <t>AE20 - SDSS LLC</t>
+  </si>
+  <si>
+    <t>AU00 - Australia</t>
+  </si>
+  <si>
+    <t>CA00 - Canada</t>
+  </si>
+  <si>
+    <t>DE00 - Germany</t>
+  </si>
+  <si>
+    <t>FR00 - France</t>
+  </si>
+  <si>
+    <t>GB00 - UK</t>
+  </si>
+  <si>
+    <t>GB90 - SDHQ</t>
+  </si>
+  <si>
+    <t>IN00 - India Branch</t>
+  </si>
+  <si>
+    <t>IN20 - SDVS</t>
+  </si>
+  <si>
+    <t>MY00 - Malaysia</t>
+  </si>
+  <si>
+    <t>NZ00 - New Zealand</t>
+  </si>
+  <si>
+    <t>SG00 - Singapore</t>
+  </si>
+  <si>
+    <t>SMITHS GROUP</t>
+  </si>
+  <si>
+    <t>TH00 - Thailand</t>
+  </si>
+  <si>
+    <t>US00 - SDI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +263,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,16 +580,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -207,10 +807,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DCA8E07-42B3-46C3-A313-9870AC0F870A}" name="CompanyMap" displayName="CompanyMap" ref="A1:B29" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B29" xr:uid="{5DCA8E07-42B3-46C3-A313-9870AC0F870A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B29">
-    <sortCondition ref="A2:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5DCA8E07-42B3-46C3-A313-9870AC0F870A}" name="CompanyMap" displayName="CompanyMap" ref="A1:B70" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B70" xr:uid="{5DCA8E07-42B3-46C3-A313-9870AC0F870A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B70">
+    <sortCondition ref="A2:A70"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A6D04F44-D1BE-4248-8F0B-26ACD8B757EC}" name="FromCompany" dataDxfId="1"/>
@@ -537,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EB95E4-5474-410F-A16B-16B5E2EFCC40}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,210 +1174,538 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
